--- a/Packing_Summary_20220812.xlsx
+++ b/Packing_Summary_20220812.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="337">
   <si>
     <t>Packing Summary</t>
   </si>
@@ -67,13 +67,37 @@
     <t>ขนม</t>
   </si>
   <si>
+    <t>DTF0060</t>
+  </si>
+  <si>
+    <t>ขนมเทียนรวมไส้-โกฮ้อง (300 กรัม)</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>DTF0150</t>
+  </si>
+  <si>
+    <t>ปังสังขยา ตรา ชฎา (300 กรัม)</t>
+  </si>
+  <si>
+    <t>DTF0170</t>
+  </si>
+  <si>
+    <t>ปังเว้ยเฮ้ยทุกไส้ (150 กรัม)</t>
+  </si>
+  <si>
     <t>DTF0210</t>
   </si>
   <si>
     <t>ลอดช่องวัดเจษ 400 ก (400 กรัม)</t>
   </si>
   <si>
-    <t>Pack</t>
+    <t>DTF0320</t>
+  </si>
+  <si>
+    <t>ชิฟฟ่อนหนองพงนก-กล่องใหญ่ (330 กรัม)</t>
   </si>
   <si>
     <t>DTF0700</t>
@@ -82,64 +106,40 @@
     <t>ขนมบ้าบิ่น นันทวรรณ (240 กรัม)</t>
   </si>
   <si>
-    <t>DTF0780</t>
-  </si>
-  <si>
-    <t>ข้าวหลามมะพร้าวอ่อน (250 กรัม)</t>
-  </si>
-  <si>
-    <t>DTF1150</t>
-  </si>
-  <si>
-    <t>โรตีสายไหม (250 กรัม)</t>
-  </si>
-  <si>
-    <t>DTF1500</t>
-  </si>
-  <si>
-    <t>บ้าบิ่น รังผึ้งมะพร้าวน้ำหอม (300 กรัม)</t>
-  </si>
-  <si>
-    <t>DTF1510</t>
-  </si>
-  <si>
-    <t>ขนมผิง ศิริชัย (100 กรัม)</t>
-  </si>
-  <si>
-    <t>DTF1590</t>
-  </si>
-  <si>
-    <t>ขนมเปี๊ยะ ของแม่ (235 กรัม)</t>
-  </si>
-  <si>
-    <t>DTF1740</t>
-  </si>
-  <si>
-    <t>ขนมหม้อแกงถ้วยตราไก่ แม่ยาย_อยุธยาไข่ถั่วเผือก (350 กรัม)</t>
-  </si>
-  <si>
-    <t>DTF1750</t>
-  </si>
-  <si>
-    <t>ร้านขนมสอดไส้ผู้พัน ตลาดน้ำดอนหวาย 1 ห่อ (35 กรัม)</t>
-  </si>
-  <si>
-    <t>DTF1770</t>
-  </si>
-  <si>
-    <t>ลอดช่องวัดเจษ ขวด (180 กรัม)</t>
-  </si>
-  <si>
-    <t>DTF1810</t>
-  </si>
-  <si>
-    <t>กล้วยตาก (250 กรัม)</t>
+    <t>DTF0800</t>
+  </si>
+  <si>
+    <t>ปัง 85 (350 กรัม)</t>
+  </si>
+  <si>
+    <t>DTF0930</t>
+  </si>
+  <si>
+    <t>ยูโรคัดตาร์ดเค้ก (220 กรัม)</t>
+  </si>
+  <si>
+    <t>DTF0940</t>
+  </si>
+  <si>
+    <t>ขนมเปี๊ยะใหญ่ ซอย8 (800 กรัม)</t>
+  </si>
+  <si>
+    <t>DTF1420</t>
+  </si>
+  <si>
+    <t>ขนมปังเนยโสด (155 กรัม)</t>
+  </si>
+  <si>
+    <t>DTF1430</t>
+  </si>
+  <si>
+    <t>ปังทุเรียน (450 กรัม)</t>
   </si>
   <si>
     <t>ขนม Weigh</t>
   </si>
   <si>
-    <t>61.03</t>
+    <t>22.69</t>
   </si>
   <si>
     <t>ผลไม้</t>
@@ -163,15 +163,21 @@
     <t>24Box</t>
   </si>
   <si>
-    <t>FT0040</t>
-  </si>
-  <si>
-    <t>แตงไทย (1000 กรัม)</t>
+    <t>FT0015</t>
+  </si>
+  <si>
+    <t>ทุเรียนกล่อง (เดี่ยว) (500 กรัม)</t>
   </si>
   <si>
     <t>Kg</t>
   </si>
   <si>
+    <t>FT0035</t>
+  </si>
+  <si>
+    <t>ทุเรียนภูเขาไฟ (500 กรัม)</t>
+  </si>
+  <si>
     <t>FT0060</t>
   </si>
   <si>
@@ -190,127 +196,43 @@
     <t>มะม่วงน้ำดอกไม้ (1000 กรัม)</t>
   </si>
   <si>
-    <t>FT0106</t>
-  </si>
-  <si>
-    <t>ทุเรียนแกะ หมอนทอง CP (ลังใหญ่) (12000 กรัม)</t>
-  </si>
-  <si>
     <t>FT0110</t>
   </si>
   <si>
     <t>สละ (1000 กรัม)</t>
   </si>
   <si>
-    <t>FT0120</t>
-  </si>
-  <si>
-    <t>กระท้อน (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>FT0121</t>
-  </si>
-  <si>
-    <t>กระท้อน ลูกใหญ่ (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>FT0125</t>
-  </si>
-  <si>
-    <t>มะม่วงเบาดองเกลือ (500 กรัม)</t>
-  </si>
-  <si>
-    <t>FT0130</t>
-  </si>
-  <si>
-    <t>มะพร้าวกะทิ ลูก (800g)</t>
-  </si>
-  <si>
-    <t>FT0135</t>
-  </si>
-  <si>
-    <t>มะม่วงแช่อิ่ม (300 กรัม)</t>
-  </si>
-  <si>
     <t>FT0140</t>
   </si>
   <si>
     <t>เงาะ (1000 กรัม)</t>
   </si>
   <si>
-    <t>FT0150</t>
-  </si>
-  <si>
-    <t>มะม่วงเขียวเสวย (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>FT0160</t>
-  </si>
-  <si>
-    <t>มะม่วงเบา (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>FT0170</t>
-  </si>
-  <si>
-    <t>มะม่วงแรด (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>FT0210</t>
-  </si>
-  <si>
-    <t>ลำไย (1000 กรัม)</t>
-  </si>
-  <si>
     <t>FT0230</t>
   </si>
   <si>
     <t>กล้วยน้ำว้า (650 กรัม)</t>
   </si>
   <si>
-    <t>FT0510</t>
-  </si>
-  <si>
-    <t>ข้าวโพดข้าวเหนียว (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>FT1440</t>
-  </si>
-  <si>
-    <t>น้อยหน่า (1000 กรัม)</t>
+    <t>FT0480</t>
+  </si>
+  <si>
+    <t>ทุเรียนหมอนทองลูก (10000 กรัม)</t>
   </si>
   <si>
     <t>ผลไม้ Weigh</t>
   </si>
   <si>
-    <t>195.6</t>
+    <t>405.25</t>
   </si>
   <si>
     <t>ผัก</t>
   </si>
   <si>
-    <t>VB0020</t>
-  </si>
-  <si>
-    <t>คื่นช่าย (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0021</t>
-  </si>
-  <si>
-    <t>คื่นช่าย (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0030</t>
-  </si>
-  <si>
-    <t>คะน้าต้น (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0032</t>
-  </si>
-  <si>
-    <t>คะน้าต้น (200 กรัม)</t>
+    <t>VB0031</t>
+  </si>
+  <si>
+    <t>คะน้าต้น (100 กรัม)</t>
   </si>
   <si>
     <t>VB0050</t>
@@ -319,6 +241,12 @@
     <t>ผักบุ้งจีน (1000 กรัม)</t>
   </si>
   <si>
+    <t>VB0051</t>
+  </si>
+  <si>
+    <t>ผักบุ้งจีน (100 กรัม)</t>
+  </si>
+  <si>
     <t>VB0052</t>
   </si>
   <si>
@@ -337,24 +265,12 @@
     <t>ใบแมงลัก (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0080</t>
-  </si>
-  <si>
-    <t>ใบโหระพา (1000 กรัม)</t>
-  </si>
-  <si>
     <t>VB0081</t>
   </si>
   <si>
     <t>ใบโหระพา (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0101</t>
-  </si>
-  <si>
-    <t>ผักชีไทย (100 กรัม)</t>
-  </si>
-  <si>
     <t>VB0160</t>
   </si>
   <si>
@@ -385,16 +301,28 @@
     <t>มะเขือเปราะ (200 กรัม)</t>
   </si>
   <si>
-    <t>VB0195</t>
-  </si>
-  <si>
-    <t>มะละกอดิบ (500 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0260</t>
-  </si>
-  <si>
-    <t>มะเขือพวง (1000 กรัม)</t>
+    <t>VB0182</t>
+  </si>
+  <si>
+    <t>มะระจีน (200 กรัม)</t>
+  </si>
+  <si>
+    <t>VB0190</t>
+  </si>
+  <si>
+    <t>มะละกอดิบ (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>VB0210</t>
+  </si>
+  <si>
+    <t>พริกจินดาแดง (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>VB0211</t>
+  </si>
+  <si>
+    <t>พริกจินดาแดง (100 กรัม)</t>
   </si>
   <si>
     <t>VB0261</t>
@@ -421,12 +349,6 @@
     <t>ผักกระเฉด (200 กรัม)</t>
   </si>
   <si>
-    <t>VB0290</t>
-  </si>
-  <si>
-    <t>รากผักชี (1000 กรัม)</t>
-  </si>
-  <si>
     <t>VB0291</t>
   </si>
   <si>
@@ -439,10 +361,16 @@
     <t>พริกไทยอ่อน (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0320</t>
-  </si>
-  <si>
-    <t>ผักบุ้งไทย (1000 กรัม)</t>
+    <t>VB0311</t>
+  </si>
+  <si>
+    <t>พริกขี้หนูสวน (100 กรัม)</t>
+  </si>
+  <si>
+    <t>VB0321</t>
+  </si>
+  <si>
+    <t>ผักบุ้งไทย (100 กรัม)</t>
   </si>
   <si>
     <t>VB0322</t>
@@ -451,18 +379,6 @@
     <t>ผักบุ้งไทย (200 กรัม)</t>
   </si>
   <si>
-    <t>VB0341</t>
-  </si>
-  <si>
-    <t>ดอกแค (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0350</t>
-  </si>
-  <si>
-    <t>ผักชีฝรั่ง (1000 กรัม)</t>
-  </si>
-  <si>
     <t>VB0351</t>
   </si>
   <si>
@@ -475,12 +391,6 @@
     <t>ใบเตย (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0380</t>
-  </si>
-  <si>
-    <t>กระชายหัว (1000 กรัม)</t>
-  </si>
-  <si>
     <t>VB0381</t>
   </si>
   <si>
@@ -505,22 +415,16 @@
     <t>ข่า (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0410</t>
-  </si>
-  <si>
-    <t>ชะอม(กำใหญ่) (1000 กรัม)</t>
-  </si>
-  <si>
     <t>VB0411</t>
   </si>
   <si>
     <t>ชะอม(กำใหญ่) (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0421</t>
-  </si>
-  <si>
-    <t>ใบบัวบก(กำใหญ่) (100 กรัม)</t>
+    <t>VB0412</t>
+  </si>
+  <si>
+    <t>ชะอม(กำใหญ่) (200 กรัม)</t>
   </si>
   <si>
     <t>VB0431</t>
@@ -529,6 +433,12 @@
     <t>ผักแขยง(กำ) (100 กรัม)</t>
   </si>
   <si>
+    <t>VB0461</t>
+  </si>
+  <si>
+    <t>กระเทียมไทย จุก (100 กรัม)</t>
+  </si>
+  <si>
     <t>VB0471</t>
   </si>
   <si>
@@ -541,36 +451,12 @@
     <t>กุ้ยช่ายเขียว (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0521</t>
-  </si>
-  <si>
-    <t>ขมิ้นเหลือง (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0550</t>
-  </si>
-  <si>
-    <t>ถั่วพู (1000 กรัม)</t>
-  </si>
-  <si>
     <t>VB0551</t>
   </si>
   <si>
     <t>ถั่วพู (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0560</t>
-  </si>
-  <si>
-    <t>เห็ดเข็มทอง (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0571</t>
-  </si>
-  <si>
-    <t>เห็ดหูหนู (100 กรัม)</t>
-  </si>
-  <si>
     <t>VB0621</t>
   </si>
   <si>
@@ -583,46 +469,16 @@
     <t>ใบมะกรูด (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0721</t>
-  </si>
-  <si>
-    <t>ลูกมะกรูด (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0731</t>
-  </si>
-  <si>
-    <t>ใบยอ (100 กรัม)</t>
-  </si>
-  <si>
     <t>VB0741</t>
   </si>
   <si>
     <t>ใบย่านาง (100 กรัม)</t>
   </si>
   <si>
-    <t>VB0751</t>
-  </si>
-  <si>
-    <t>ใบเหลียง (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0790</t>
-  </si>
-  <si>
-    <t>มะเขือลาย (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0792</t>
-  </si>
-  <si>
-    <t>มะเขือลาย (200 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0810</t>
-  </si>
-  <si>
-    <t>มะเขือเหลือง (1000 กรัม)</t>
+    <t>VB0760</t>
+  </si>
+  <si>
+    <t>ใบตอง (1000 กรัม)</t>
   </si>
   <si>
     <t>VB0811</t>
@@ -637,34 +493,16 @@
     <t>มะเขือเหลือง (200 กรัม)</t>
   </si>
   <si>
-    <t>VB0891</t>
-  </si>
-  <si>
-    <t>ผักพายน้อย (100)</t>
-  </si>
-  <si>
-    <t>VB0900</t>
-  </si>
-  <si>
-    <t>หน่อไม้ไผ่รวก (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0912</t>
-  </si>
-  <si>
-    <t>ยอดฟักแม้ว ยอดมะระ (200 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0931</t>
-  </si>
-  <si>
-    <t>ยอดมะพร้าว (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB0950</t>
-  </si>
-  <si>
-    <t>สะตอแกะ (1000 กรัม)</t>
+    <t>VB0831</t>
+  </si>
+  <si>
+    <t>มะเขือไข่เต่า (100 กรัม)</t>
+  </si>
+  <si>
+    <t>VB0861</t>
+  </si>
+  <si>
+    <t>มะเขือเทศเครือส้ม (100 กรัม)</t>
   </si>
   <si>
     <t>VB0951</t>
@@ -673,46 +511,46 @@
     <t>สะตอแกะ (100 กรัม)</t>
   </si>
   <si>
+    <t>VB0962</t>
+  </si>
+  <si>
+    <t>กระถินฝักแก่ (200 กรัม)</t>
+  </si>
+  <si>
     <t>VB0970</t>
   </si>
   <si>
     <t>ตะไคร้ (1000 กรัม)</t>
   </si>
   <si>
+    <t>VB0972</t>
+  </si>
+  <si>
+    <t>ตะไคร้ (200 กรัม)</t>
+  </si>
+  <si>
     <t>VB0990</t>
   </si>
   <si>
     <t>ฝักสะตอ (1000 กรัม)</t>
   </si>
   <si>
-    <t>VB1001</t>
-  </si>
-  <si>
-    <t>ดอกสะเดา (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1020</t>
-  </si>
-  <si>
-    <t>ผักบุ้งนา (1000 กรัม)</t>
-  </si>
-  <si>
     <t>VB1021</t>
   </si>
   <si>
     <t>ผักบุ้งนา (100 กรัม)</t>
   </si>
   <si>
-    <t>VB1022</t>
-  </si>
-  <si>
-    <t>ผักบุ้งนา (200 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1031</t>
-  </si>
-  <si>
-    <t>ยี่หร่า (100 กรัม)</t>
+    <t>VB1041</t>
+  </si>
+  <si>
+    <t>ขึ้นฉ่าย (100 กรัม)</t>
+  </si>
+  <si>
+    <t>VB1051</t>
+  </si>
+  <si>
+    <t>มะระขี้นก (100 กรัม)</t>
   </si>
   <si>
     <t>VB1061</t>
@@ -721,40 +559,10 @@
     <t>ไส้ข่าอ่อน (100 กรัม)</t>
   </si>
   <si>
-    <t>VB1062</t>
-  </si>
-  <si>
-    <t>ไส้ข่าอ่อน (200 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1071</t>
-  </si>
-  <si>
-    <t>ผักแว่น (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1091</t>
-  </si>
-  <si>
-    <t>ชุดหมากพลู (40 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1102</t>
-  </si>
-  <si>
-    <t>สายบัว (200 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1121</t>
-  </si>
-  <si>
-    <t>หวายอ่อนปลอก (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1122</t>
-  </si>
-  <si>
-    <t>หวายอ่อนปลอก (200 กรัม)</t>
+    <t>VB1111</t>
+  </si>
+  <si>
+    <t>ก้านทูน (100 กรัม)</t>
   </si>
   <si>
     <t>VB1131</t>
@@ -763,22 +571,16 @@
     <t>ผักหวานป่า (100 กรัม)</t>
   </si>
   <si>
-    <t>VB1151</t>
-  </si>
-  <si>
-    <t>ก้านจอง (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1152</t>
-  </si>
-  <si>
-    <t>ก้านจอง (200 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1160</t>
-  </si>
-  <si>
-    <t>หัวปลี (1000 กรัม)</t>
+    <t>VB1141</t>
+  </si>
+  <si>
+    <t>ใบย่านาง เฉพาะใบ (100 กรัม)</t>
+  </si>
+  <si>
+    <t>VB1180</t>
+  </si>
+  <si>
+    <t>ยอดกระถิน (1000 กรัม)</t>
   </si>
   <si>
     <t>VB1181</t>
@@ -793,28 +595,10 @@
     <t>ฝักกระถินอ่อน (100 กรัม)</t>
   </si>
   <si>
-    <t>VB1230</t>
-  </si>
-  <si>
-    <t>ไข่ผำ (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1232</t>
-  </si>
-  <si>
-    <t>ไข่ผำ (200 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1240</t>
-  </si>
-  <si>
-    <t>ลิ้นฟ้า (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1242</t>
-  </si>
-  <si>
-    <t>ลิ้นฟ้า (200 กรัม)</t>
+    <t>VB1192</t>
+  </si>
+  <si>
+    <t>ฝักกระถินอ่อน (200 กรัม)</t>
   </si>
   <si>
     <t>VB1251</t>
@@ -823,24 +607,18 @@
     <t>เห็ดขอนขาว (100 กรัม)</t>
   </si>
   <si>
+    <t>VB1271</t>
+  </si>
+  <si>
+    <t>มะเขือเสวย (100 กรัม)</t>
+  </si>
+  <si>
     <t>VB1281</t>
   </si>
   <si>
     <t>ชะพลู (100 กรัม)</t>
   </si>
   <si>
-    <t>VB1290</t>
-  </si>
-  <si>
-    <t>ดอกกระเจียว (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1291</t>
-  </si>
-  <si>
-    <t>ดอกกระเจียว (100 กรัม)</t>
-  </si>
-  <si>
     <t>VB1301</t>
   </si>
   <si>
@@ -865,61 +643,208 @@
     <t>หน่อไม้ไผ่ตง (1000 กรัม)</t>
   </si>
   <si>
+    <t>VB1332</t>
+  </si>
+  <si>
+    <t>หน่อไม้ไผ่ตง (200 กรัม)</t>
+  </si>
+  <si>
+    <t>VB1341</t>
+  </si>
+  <si>
+    <t>พริกลาว (100 กรัม)</t>
+  </si>
+  <si>
     <t>VB1361</t>
   </si>
   <si>
     <t>ผักแพว (100 กรัม)</t>
   </si>
   <si>
-    <t>VB1371</t>
-  </si>
-  <si>
-    <t>ผักกาดสร้อย (100 กรัม)</t>
-  </si>
-  <si>
     <t>VB1381</t>
   </si>
   <si>
     <t>ดอกโสน (100 กรัม)</t>
   </si>
   <si>
-    <t>VB1410</t>
-  </si>
-  <si>
-    <t>ลูกเหรียง (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1450</t>
-  </si>
-  <si>
-    <t>ใบกะเพราแดง (1000 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1451</t>
-  </si>
-  <si>
-    <t>ใบกะเพราแดง (100 กรัม)</t>
-  </si>
-  <si>
-    <t>VB1491</t>
-  </si>
-  <si>
-    <t>สายบัว (100 กรัม)</t>
+    <t>VB1431</t>
+  </si>
+  <si>
+    <t>ใบมะขามอ่อน (100 กรัม)</t>
+  </si>
+  <si>
+    <t>VB1463</t>
+  </si>
+  <si>
+    <t>ดอกสะเดาแช่แข็ง (300g)</t>
   </si>
   <si>
     <t>ผัก Weigh</t>
   </si>
   <si>
-    <t>238.7</t>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>ลูกชิ้นไส้กรอก</t>
+  </si>
+  <si>
+    <t>MSF0050</t>
+  </si>
+  <si>
+    <t>ลูกชิ้นหมูโฮเด้ง/โกเด้ง (500 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0070</t>
+  </si>
+  <si>
+    <t>ไส้กรอกแดง แหลมทอง (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0120</t>
+  </si>
+  <si>
+    <t>ลูกชิ้นเนื้อวัว แชมป์ (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0170</t>
+  </si>
+  <si>
+    <t>ไส้กรอกแดง แหลมทอง-รสนม (500 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0330</t>
+  </si>
+  <si>
+    <t>ไส้กรอกชีสเล็ก (500 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0370</t>
+  </si>
+  <si>
+    <t>โบโลน่าพริก สไลด์ แหลมทอง (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0390</t>
+  </si>
+  <si>
+    <t>ไส้กรอกไก่ สอด ไส้ชีส AFM (500 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0470</t>
+  </si>
+  <si>
+    <t>ฟุตลองสไปซี่ 7-11 (130 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0490</t>
+  </si>
+  <si>
+    <t>สโมกกี้ ไบท์ 7-11 (400 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0510</t>
+  </si>
+  <si>
+    <t>ลูกชิ้นจิตรปลากราย (500 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0550</t>
+  </si>
+  <si>
+    <t>หมูยอดอนเมือง (100 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0600</t>
+  </si>
+  <si>
+    <t>ไส้กรอกแดงแหลมทอง (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0640</t>
+  </si>
+  <si>
+    <t>จิตรทอดมันปลากราย (500 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0670</t>
+  </si>
+  <si>
+    <t>ทอดมันปลากรายคุณอุ๊ (500 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0710</t>
+  </si>
+  <si>
+    <t>ลูกชิ้นทอดมันปลาสีส้ม (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>MSF0750</t>
+  </si>
+  <si>
+    <t>ลูกชิ้นเอ็นเนื้อ แชมป์ (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>RF1220</t>
+  </si>
+  <si>
+    <t>แฮกึ๋น กุ้งล้วน 5 เส้น นภาพร (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>ลูกชิ้นไส้กรอก Weigh</t>
+  </si>
+  <si>
+    <t>45.66</t>
   </si>
   <si>
     <t>วัตถุดิบ</t>
   </si>
   <si>
-    <t>IF0820</t>
-  </si>
-  <si>
-    <t>เส้นเล็กตราดอกบัว (500 กรัม)</t>
+    <t>IF0060</t>
+  </si>
+  <si>
+    <t>ไก่จ๊อห้าดาว (1000 กรัม)</t>
+  </si>
+  <si>
+    <t>IF0065</t>
+  </si>
+  <si>
+    <t>ไก่จ๊อห้าดาว ถุงเล็ก (500 กรัม)</t>
+  </si>
+  <si>
+    <t>IF0540</t>
+  </si>
+  <si>
+    <t>CP เลือดหมูก้อน (400 กรัม)</t>
+  </si>
+  <si>
+    <t>IF0560</t>
+  </si>
+  <si>
+    <t>ปลาส้มวาสนา (500 กรัม)</t>
+  </si>
+  <si>
+    <t>IF0580</t>
+  </si>
+  <si>
+    <t>เลือดไก่ (350 กรัม)</t>
+  </si>
+  <si>
+    <t>IF0640</t>
+  </si>
+  <si>
+    <t>ปลาทูหอม (500 กรัม)</t>
+  </si>
+  <si>
+    <t>IF0655</t>
+  </si>
+  <si>
+    <t>ปลาดุกแดดเดียว ถุงเล็ก (500 กรัม)</t>
+  </si>
+  <si>
+    <t>IF0840</t>
+  </si>
+  <si>
+    <t>เส้นบะหมี่ไข่ ตราไก่ (เส้นกลม) (500 กรัม)</t>
   </si>
   <si>
     <t>IF0895</t>
@@ -928,27 +853,72 @@
     <t>เส้นใหญ่ตราดอกบัว ถุงเล็ก (500 กรัม)</t>
   </si>
   <si>
-    <t>IF1590</t>
-  </si>
-  <si>
-    <t>แป้งลอดช่องสิงคโปร์หลากสี กึ่งสำเร็จ  (500 กรัม)</t>
-  </si>
-  <si>
-    <t>IF1600</t>
-  </si>
-  <si>
-    <t>แป้งครองแครงหลากสี กึ่งสำเร็จ (500 กรัม)</t>
+    <t>IF0920</t>
+  </si>
+  <si>
+    <t>กุนเชียงเชือกแดง (450 กรัม)</t>
   </si>
   <si>
     <t>วัตถุดิบ Weigh</t>
   </si>
   <si>
-    <t>9.5</t>
+    <t>40.35</t>
+  </si>
+  <si>
+    <t>อาหารพร้อมทาน</t>
+  </si>
+  <si>
+    <t>RF1320</t>
+  </si>
+  <si>
+    <t>ซาลาเปาทับหลี-หมูแดง (100 กรัม)</t>
+  </si>
+  <si>
+    <t>RF1340</t>
+  </si>
+  <si>
+    <t>กระเพาะปลาอุดร (110 กรัม)</t>
+  </si>
+  <si>
+    <t>อาหารพร้อมทาน Weigh</t>
+  </si>
+  <si>
+    <t>2.14</t>
   </si>
   <si>
     <t>อาหารแห้ง</t>
   </si>
   <si>
+    <t>DSF0260</t>
+  </si>
+  <si>
+    <t>ปลาหมึกสไปรซี่ (500 กรัม)</t>
+  </si>
+  <si>
+    <t>DSF0380</t>
+  </si>
+  <si>
+    <t>หมึกแพไข่แดง (500 กรัม)</t>
+  </si>
+  <si>
+    <t>DSF0670</t>
+  </si>
+  <si>
+    <t>กุ้งวังเล็ก (500 กรัม)</t>
+  </si>
+  <si>
+    <t>DSF0810</t>
+  </si>
+  <si>
+    <t>ปลาช่อนกลาง (500 กรัม)</t>
+  </si>
+  <si>
+    <t>DSF0830</t>
+  </si>
+  <si>
+    <t>ปลาช่อนเล็ก (500 กรัม)</t>
+  </si>
+  <si>
     <t>RF1200</t>
   </si>
   <si>
@@ -958,12 +928,75 @@
     <t>อาหารแห้ง Weigh</t>
   </si>
   <si>
-    <t>16.0</t>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>อิสาน</t>
+  </si>
+  <si>
+    <t>EF0035</t>
+  </si>
+  <si>
+    <t>แม่เป้งสดฟรีซ ถุงเล็ก (500 กรัม)</t>
+  </si>
+  <si>
+    <t>EF0055</t>
+  </si>
+  <si>
+    <t>ดักแด้สดฟรีซ ถุงเล็ก (500 กรัม)</t>
+  </si>
+  <si>
+    <t>EF0235</t>
+  </si>
+  <si>
+    <t>หอยขมแกะ ถุงเล็ก (500 กรัม)</t>
+  </si>
+  <si>
+    <t>EF0300</t>
+  </si>
+  <si>
+    <t>แหนมดอนเมือง กม.26 (130 กรัม)</t>
+  </si>
+  <si>
+    <t>EF0400</t>
+  </si>
+  <si>
+    <t>แหนมตุ้มจิ๋ว กม.26 (60 กรัม)</t>
+  </si>
+  <si>
+    <t>อิสาน Weigh</t>
+  </si>
+  <si>
+    <t>5.15</t>
   </si>
   <si>
     <t>เครื่องปรุง</t>
   </si>
   <si>
+    <t>FIF0110</t>
+  </si>
+  <si>
+    <t>ปลาร้า หม่ำ (350 กรัม)</t>
+  </si>
+  <si>
+    <t>FIF0120</t>
+  </si>
+  <si>
+    <t>ปลาร้าแม่อีพิม (400 กรัม)</t>
+  </si>
+  <si>
+    <t>FIF0160</t>
+  </si>
+  <si>
+    <t>ปลาร้านางฟ้า (400 กรัม)</t>
+  </si>
+  <si>
+    <t>FIF0170</t>
+  </si>
+  <si>
+    <t>น้ำปู (150 กรัม)</t>
+  </si>
+  <si>
     <t>FIF0410</t>
   </si>
   <si>
@@ -973,13 +1006,13 @@
     <t>เครื่องปรุง Weigh</t>
   </si>
   <si>
-    <t>7.0</t>
+    <t>33.85</t>
   </si>
   <si>
     <t>Product Weight (Kg)</t>
   </si>
   <si>
-    <t>527.83</t>
+    <t>779.59</t>
   </si>
   <si>
     <t>Carton Weight (Kg)</t>
@@ -1349,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,13 +1450,13 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1431,10 +1464,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1443,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1457,13 +1490,13 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1471,10 +1504,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1483,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1491,19 +1524,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12">
-        <v>6.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1511,19 +1544,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1531,10 +1564,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1543,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1557,13 +1590,13 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15">
-        <v>3.9</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1577,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1591,19 +1624,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>1.17</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1617,13 +1650,13 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18">
-        <v>6.58</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1637,13 +1670,13 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1651,19 +1684,19 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20">
-        <v>7.7</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1671,19 +1704,19 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1691,19 +1724,19 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22">
-        <v>0.03</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1711,19 +1744,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23">
-        <v>0.01</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1737,13 +1770,13 @@
         <v>33</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24">
-        <v>1.08</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1751,19 +1784,19 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1771,117 +1804,117 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26">
-        <v>0.36</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>3.6</v>
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>0.9</v>
+      <c r="A28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>5.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>1.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>38</v>
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -1890,38 +1923,38 @@
         <v>40</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -1930,18 +1963,18 @@
         <v>43</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>44</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -1961,7 +1994,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -1970,18 +2003,18 @@
         <v>43</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>44</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -2001,7 +2034,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -2010,64 +2043,64 @@
         <v>43</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
         <v>44</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2076,41 +2109,41 @@
         <v>47</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>47</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>47</v>
@@ -2121,16 +2154,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
@@ -2141,167 +2174,167 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>47</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
         <v>47</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
         <v>47</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
         <v>47</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
         <v>47</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
         <v>47</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
         <v>47</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
@@ -2310,144 +2343,144 @@
         <v>59</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
         <v>47</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
         <v>47</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
         <v>47</v>
       </c>
       <c r="F56">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>47</v>
       </c>
       <c r="F57">
-        <v>2.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D58">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
         <v>47</v>
       </c>
       <c r="F58">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
         <v>47</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
         <v>47</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2456,124 +2489,97 @@
         <v>47</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>47</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>47</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64">
-        <v>32</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65">
-        <v>33</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
+      <c r="A65" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -2581,59 +2587,59 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
         <v>74</v>
       </c>
-      <c r="C69" t="s">
-        <v>75</v>
-      </c>
       <c r="D69">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
         <v>76</v>
       </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
       <c r="D70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2641,99 +2647,99 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F71">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F72">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F73">
-        <v>3.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>1.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2761,86 +2767,113 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79">
         <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D82">
         <v>10</v>
@@ -2854,16 +2887,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -2874,13 +2907,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -2889,61 +2922,61 @@
         <v>15</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -2954,56 +2987,56 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
       </c>
       <c r="F88">
-        <v>0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -3014,133 +3047,133 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
         <v>15</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
         <v>15</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
       </c>
       <c r="F94">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
       </c>
       <c r="F95">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
       </c>
       <c r="F96">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D97">
         <v>10</v>
@@ -3149,41 +3182,41 @@
         <v>15</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
@@ -3194,36 +3227,36 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>15</v>
@@ -3234,156 +3267,156 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D103">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
       </c>
       <c r="F103">
-        <v>3.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
         <v>15</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
         <v>15</v>
       </c>
       <c r="F105">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D106">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
         <v>15</v>
       </c>
       <c r="F106">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
       </c>
       <c r="F107">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
         <v>15</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
@@ -3394,13 +3427,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -3409,81 +3442,81 @@
         <v>15</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" t="s">
         <v>15</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
       </c>
       <c r="F113">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
@@ -3494,136 +3527,136 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E115" t="s">
         <v>15</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
         <v>15</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
         <v>15</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
         <v>15</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120" t="s">
         <v>15</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
         <v>15</v>
@@ -3634,73 +3667,73 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D122">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
       </c>
       <c r="F122">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -3714,13 +3747,13 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C126" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D126">
         <v>10</v>
@@ -3734,13 +3767,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C127" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D127">
         <v>5</v>
@@ -3754,113 +3787,113 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B128" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C128" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
         <v>15</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C129" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
         <v>15</v>
       </c>
       <c r="F129">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C130" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
         <v>15</v>
       </c>
       <c r="F130">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B131" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C131" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C132" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E132" t="s">
         <v>15</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B133" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D133">
         <v>10</v>
@@ -3869,218 +3902,218 @@
         <v>15</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C134" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
         <v>15</v>
       </c>
       <c r="F134">
-        <v>0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
         <v>15</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C136" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C137" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
         <v>15</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C138" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C139" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D139">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E139" t="s">
         <v>15</v>
       </c>
       <c r="F139">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C140" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E140" t="s">
         <v>15</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C141" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E141" t="s">
         <v>15</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C142" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
         <v>15</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
         <v>15</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B144" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D144">
         <v>15</v>
@@ -4094,16 +4127,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C145" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -4114,73 +4147,73 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B146" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C146" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E146" t="s">
         <v>15</v>
       </c>
       <c r="F146">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C147" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
         <v>15</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C148" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
         <v>15</v>
       </c>
       <c r="F148">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C149" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4189,78 +4222,78 @@
         <v>15</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C150" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D150">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
       </c>
       <c r="F150">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C151" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D151">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D152">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C153" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D153">
         <v>10</v>
@@ -4274,133 +4307,133 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B154" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C154" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
       </c>
       <c r="F154">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C155" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
       </c>
       <c r="F155">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B156" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C156" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D156">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
       </c>
       <c r="F156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B157" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C157" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E157" t="s">
         <v>15</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B158" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C158" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
         <v>15</v>
       </c>
       <c r="F158">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B159" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C159" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
       </c>
       <c r="F159">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B160" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D160">
         <v>10</v>
@@ -4414,76 +4447,76 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B161" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B162" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C162" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
         <v>15</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B163" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C163" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
         <v>15</v>
       </c>
       <c r="F163">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C164" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
         <v>15</v>
@@ -4494,56 +4527,56 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B165" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C165" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B166" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C166" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D166">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E166" t="s">
         <v>15</v>
       </c>
       <c r="F166">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C167" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
         <v>15</v>
@@ -4554,16 +4587,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C168" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
         <v>15</v>
@@ -4574,393 +4607,393 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C169" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
         <v>15</v>
       </c>
       <c r="F169">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E170" t="s">
         <v>15</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B171" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C171" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E171" t="s">
         <v>15</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B172" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E172" t="s">
         <v>15</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C173" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E173" t="s">
         <v>15</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C174" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B175" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C175" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D175">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E175" t="s">
         <v>15</v>
       </c>
       <c r="F175">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B176" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C176" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D176">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
       </c>
       <c r="F176">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C177" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
       </c>
       <c r="F177">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C178" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
       </c>
       <c r="F178">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B179" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C179" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
         <v>15</v>
       </c>
       <c r="F179">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B180" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B181" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C181" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
         <v>15</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B182" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C182" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E182" t="s">
         <v>15</v>
       </c>
       <c r="F182">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B183" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C183" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E183" t="s">
         <v>15</v>
       </c>
       <c r="F183">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B184" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D184">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
       </c>
       <c r="F184">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B185" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C185" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
       </c>
       <c r="F185">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B186" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C186" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
       </c>
       <c r="F186">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B187" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C187" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E187" t="s">
         <v>15</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B188" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C188" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -4974,96 +5007,96 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B189" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C189" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E189" t="s">
         <v>15</v>
       </c>
       <c r="F189">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B190" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C190" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B191" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
         <v>15</v>
       </c>
       <c r="F191">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B192" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C192" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E192" t="s">
         <v>15</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B193" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C193" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
         <v>15</v>
@@ -5074,53 +5107,53 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B194" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C194" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E194" t="s">
         <v>15</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B195" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C195" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E195" t="s">
         <v>15</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B196" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C196" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -5134,13 +5167,13 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B197" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C197" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D197">
         <v>10</v>
@@ -5154,7 +5187,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B198" t="s">
         <v>181</v>
@@ -5174,7 +5207,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B199" t="s">
         <v>183</v>
@@ -5183,64 +5216,64 @@
         <v>184</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B200" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C200" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
         <v>15</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B201" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C201" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
         <v>15</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B202" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C202" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D202">
         <v>10</v>
@@ -5254,36 +5287,36 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B203" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C203" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D203">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
         <v>15</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B204" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C204" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D204">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
         <v>15</v>
@@ -5294,13 +5327,13 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B205" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C205" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D205">
         <v>10</v>
@@ -5314,116 +5347,116 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B206" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C206" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
         <v>15</v>
       </c>
       <c r="F206">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B207" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C207" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E207" t="s">
         <v>15</v>
       </c>
       <c r="F207">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B208" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C208" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
       </c>
       <c r="F208">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B209" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C209" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
       </c>
       <c r="F209">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B210" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C210" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
       </c>
       <c r="F210">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B211" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C211" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
         <v>15</v>
@@ -5434,33 +5467,33 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B212" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C212" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E212" t="s">
         <v>15</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C213" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D213">
         <v>5</v>
@@ -5469,32 +5502,32 @@
         <v>15</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B214" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E214" t="s">
         <v>15</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B215" t="s">
         <v>199</v>
@@ -5503,18 +5536,18 @@
         <v>200</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
       </c>
       <c r="F215">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B216" t="s">
         <v>201</v>
@@ -5523,7 +5556,7 @@
         <v>202</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
         <v>15</v>
@@ -5534,7 +5567,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B217" t="s">
         <v>203</v>
@@ -5543,18 +5576,18 @@
         <v>204</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E217" t="s">
         <v>15</v>
       </c>
       <c r="F217">
-        <v>0.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B218" t="s">
         <v>205</v>
@@ -5563,38 +5596,38 @@
         <v>206</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B219" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C219" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B220" t="s">
         <v>207</v>
@@ -5609,98 +5642,98 @@
         <v>15</v>
       </c>
       <c r="F220">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B221" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C221" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
       </c>
       <c r="F221">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B222" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C222" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B223" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C223" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D223">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
         <v>15</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B224" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C224" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
         <v>15</v>
       </c>
       <c r="F224">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B225" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C225" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D225">
         <v>10</v>
@@ -5714,7 +5747,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B226" t="s">
         <v>213</v>
@@ -5723,18 +5756,18 @@
         <v>214</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E226" t="s">
         <v>15</v>
       </c>
       <c r="F226">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B227" t="s">
         <v>215</v>
@@ -5743,144 +5776,117 @@
         <v>216</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
         <v>15</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228">
-        <v>149</v>
-      </c>
-      <c r="B228" t="s">
-        <v>215</v>
-      </c>
-      <c r="C228" t="s">
-        <v>216</v>
-      </c>
-      <c r="D228">
-        <v>3</v>
-      </c>
-      <c r="E228" t="s">
-        <v>15</v>
-      </c>
-      <c r="F228">
-        <v>3</v>
+      <c r="A228" t="s">
+        <v>66</v>
+      </c>
+      <c r="F228" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229">
-        <v>150</v>
-      </c>
-      <c r="B229" t="s">
-        <v>217</v>
-      </c>
-      <c r="C229" t="s">
-        <v>218</v>
-      </c>
-      <c r="D229">
-        <v>2</v>
-      </c>
-      <c r="E229" t="s">
-        <v>15</v>
-      </c>
-      <c r="F229">
-        <v>2</v>
+      <c r="A229" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C230" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E230" t="s">
         <v>15</v>
       </c>
       <c r="F230">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="B231" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C231" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E231" t="s">
         <v>15</v>
       </c>
       <c r="F231">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="B232" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C232" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D232">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
         <v>15</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C233" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E233" t="s">
         <v>15</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C234" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D234">
         <v>5</v>
@@ -5889,41 +5895,41 @@
         <v>15</v>
       </c>
       <c r="F234">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C235" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E235" t="s">
         <v>15</v>
       </c>
       <c r="F235">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="B236" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C236" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E236" t="s">
         <v>15</v>
@@ -5934,56 +5940,56 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
+        <v>228</v>
+      </c>
+      <c r="C237" t="s">
         <v>229</v>
       </c>
-      <c r="C237" t="s">
-        <v>230</v>
-      </c>
       <c r="D237">
+        <v>10</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237">
         <v>5</v>
-      </c>
-      <c r="E237" t="s">
-        <v>15</v>
-      </c>
-      <c r="F237">
-        <v>0.5</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
+        <v>230</v>
+      </c>
+      <c r="C238" t="s">
         <v>231</v>
       </c>
-      <c r="C238" t="s">
-        <v>232</v>
-      </c>
       <c r="D238">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E238" t="s">
         <v>15</v>
       </c>
       <c r="F238">
-        <v>1.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
+        <v>232</v>
+      </c>
+      <c r="C239" t="s">
         <v>233</v>
       </c>
-      <c r="C239" t="s">
-        <v>234</v>
-      </c>
       <c r="D239">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E239" t="s">
         <v>15</v>
@@ -5994,13 +6000,13 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="B240" t="s">
+        <v>234</v>
+      </c>
+      <c r="C240" t="s">
         <v>235</v>
-      </c>
-      <c r="C240" t="s">
-        <v>236</v>
       </c>
       <c r="D240">
         <v>5</v>
@@ -6009,61 +6015,61 @@
         <v>15</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B241" t="s">
+        <v>236</v>
+      </c>
+      <c r="C241" t="s">
         <v>237</v>
       </c>
-      <c r="C241" t="s">
-        <v>238</v>
-      </c>
       <c r="D241">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
         <v>15</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="B242" t="s">
+        <v>238</v>
+      </c>
+      <c r="C242" t="s">
         <v>239</v>
       </c>
-      <c r="C242" t="s">
-        <v>240</v>
-      </c>
       <c r="D242">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E242" t="s">
         <v>15</v>
       </c>
       <c r="F242">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="B243" t="s">
+        <v>240</v>
+      </c>
+      <c r="C243" t="s">
         <v>241</v>
       </c>
-      <c r="C243" t="s">
-        <v>242</v>
-      </c>
       <c r="D243">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -6074,56 +6080,56 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E244" t="s">
         <v>15</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="B245" t="s">
+        <v>242</v>
+      </c>
+      <c r="C245" t="s">
         <v>243</v>
       </c>
-      <c r="C245" t="s">
-        <v>244</v>
-      </c>
       <c r="D245">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E245" t="s">
         <v>15</v>
       </c>
       <c r="F245">
-        <v>0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E246" t="s">
         <v>15</v>
@@ -6134,156 +6140,129 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="B247" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C247" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D247">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E247" t="s">
         <v>15</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E248" t="s">
         <v>15</v>
       </c>
       <c r="F248">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="B249" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E249" t="s">
         <v>15</v>
       </c>
       <c r="F249">
-        <v>0.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
       </c>
       <c r="F250">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251">
-        <v>172</v>
-      </c>
-      <c r="B251" t="s">
-        <v>247</v>
-      </c>
-      <c r="C251" t="s">
-        <v>248</v>
-      </c>
-      <c r="D251">
-        <v>5</v>
-      </c>
-      <c r="E251" t="s">
-        <v>15</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
+      <c r="A251" t="s">
+        <v>219</v>
+      </c>
+      <c r="F251" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252">
-        <v>173</v>
-      </c>
-      <c r="B252" t="s">
-        <v>249</v>
-      </c>
-      <c r="C252" t="s">
-        <v>250</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-      <c r="E252" t="s">
-        <v>15</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
+      <c r="A252" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E253" t="s">
         <v>15</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C254" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E254" t="s">
         <v>15</v>
@@ -6294,233 +6273,233 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C255" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E255" t="s">
         <v>15</v>
       </c>
       <c r="F255">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C256" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D256">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E256" t="s">
         <v>15</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="B257" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C257" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D257">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E257" t="s">
         <v>15</v>
       </c>
       <c r="F257">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C258" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E258" t="s">
         <v>15</v>
       </c>
       <c r="F258">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C259" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E259" t="s">
         <v>15</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="B260" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C260" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E260" t="s">
         <v>15</v>
       </c>
       <c r="F260">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C261" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E261" t="s">
         <v>15</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="B262" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C262" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E262" t="s">
         <v>15</v>
       </c>
       <c r="F262">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="B263" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C263" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E263" t="s">
         <v>15</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="B264" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C264" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E264" t="s">
         <v>15</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="B265" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C265" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E265" t="s">
         <v>15</v>
       </c>
       <c r="F265">
-        <v>0.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C266" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D266">
         <v>5</v>
@@ -6529,261 +6508,207 @@
         <v>15</v>
       </c>
       <c r="F266">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="B267" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C267" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D267">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E267" t="s">
         <v>15</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C268" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D268">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E268" t="s">
         <v>15</v>
       </c>
       <c r="F268">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="B269" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C269" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D269">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E269" t="s">
         <v>15</v>
       </c>
       <c r="F269">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270">
-        <v>191</v>
-      </c>
-      <c r="B270" t="s">
-        <v>265</v>
-      </c>
-      <c r="C270" t="s">
-        <v>266</v>
-      </c>
-      <c r="D270">
-        <v>2</v>
-      </c>
-      <c r="E270" t="s">
-        <v>15</v>
-      </c>
-      <c r="F270">
-        <v>0.2</v>
+      <c r="A270" t="s">
+        <v>256</v>
+      </c>
+      <c r="F270" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271">
-        <v>192</v>
-      </c>
-      <c r="B271" t="s">
-        <v>265</v>
-      </c>
-      <c r="C271" t="s">
-        <v>266</v>
-      </c>
-      <c r="D271">
-        <v>10</v>
-      </c>
-      <c r="E271" t="s">
-        <v>15</v>
-      </c>
-      <c r="F271">
-        <v>1</v>
+      <c r="A271" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C272" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E272" t="s">
         <v>15</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="B273" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C273" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D273">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E273" t="s">
         <v>15</v>
       </c>
       <c r="F273">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="B274" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D274">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E274" t="s">
         <v>15</v>
       </c>
       <c r="F274">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275">
-        <v>196</v>
-      </c>
-      <c r="B275" t="s">
-        <v>271</v>
-      </c>
-      <c r="C275" t="s">
-        <v>272</v>
-      </c>
-      <c r="D275">
-        <v>10</v>
-      </c>
-      <c r="E275" t="s">
-        <v>15</v>
-      </c>
-      <c r="F275">
-        <v>1</v>
+      <c r="A275" t="s">
+        <v>279</v>
+      </c>
+      <c r="F275" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276">
-        <v>197</v>
-      </c>
-      <c r="B276" t="s">
-        <v>273</v>
-      </c>
-      <c r="C276" t="s">
-        <v>274</v>
-      </c>
-      <c r="D276">
-        <v>5</v>
-      </c>
-      <c r="E276" t="s">
-        <v>15</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
+      <c r="A276" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C277" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D277">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E277" t="s">
         <v>15</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>199</v>
+        <v>2</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C278" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D278">
+        <v>6</v>
+      </c>
+      <c r="E278" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278">
         <v>3</v>
-      </c>
-      <c r="E278" t="s">
-        <v>15</v>
-      </c>
-      <c r="F278">
-        <v>0.3</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="B279" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C279" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D279">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E279" t="s">
         <v>15</v>
@@ -6794,56 +6719,56 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C280" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D280">
+        <v>6</v>
+      </c>
+      <c r="E280" t="s">
+        <v>15</v>
+      </c>
+      <c r="F280">
         <v>3</v>
-      </c>
-      <c r="E280" t="s">
-        <v>15</v>
-      </c>
-      <c r="F280">
-        <v>0.3</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="B281" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C281" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E281" t="s">
         <v>15</v>
       </c>
       <c r="F281">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C282" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D282">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E282" t="s">
         <v>15</v>
@@ -6854,173 +6779,146 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E283" t="s">
         <v>15</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C284" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E284" t="s">
         <v>15</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C285" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="D285">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E285" t="s">
         <v>15</v>
       </c>
       <c r="F285">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="B286" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C286" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D286">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E286" t="s">
         <v>15</v>
       </c>
       <c r="F286">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C287" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D287">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E287" t="s">
         <v>15</v>
       </c>
       <c r="F287">
-        <v>0.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288">
-        <v>209</v>
-      </c>
-      <c r="B288" t="s">
-        <v>283</v>
-      </c>
-      <c r="C288" t="s">
-        <v>284</v>
-      </c>
-      <c r="D288">
-        <v>10</v>
-      </c>
-      <c r="E288" t="s">
-        <v>15</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
+      <c r="A288" t="s">
+        <v>286</v>
+      </c>
+      <c r="F288" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289">
-        <v>210</v>
-      </c>
-      <c r="B289" t="s">
-        <v>283</v>
-      </c>
-      <c r="C289" t="s">
-        <v>284</v>
-      </c>
-      <c r="D289">
-        <v>3</v>
-      </c>
-      <c r="E289" t="s">
-        <v>15</v>
-      </c>
-      <c r="F289">
-        <v>0.3</v>
+      <c r="A289" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="B290" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C290" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E290" t="s">
         <v>15</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="B291" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C291" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -7029,358 +6927,298 @@
         <v>15</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="B292" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E292" t="s">
         <v>15</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C293" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D293">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E293" t="s">
         <v>15</v>
       </c>
       <c r="F293">
-        <v>4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="B294" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C294" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D294">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E294" t="s">
         <v>15</v>
       </c>
       <c r="F294">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C295" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="D295">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E295" t="s">
         <v>15</v>
       </c>
       <c r="F295">
-        <v>0.7</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296">
-        <v>217</v>
-      </c>
-      <c r="B296" t="s">
-        <v>291</v>
-      </c>
-      <c r="C296" t="s">
-        <v>292</v>
-      </c>
-      <c r="D296">
-        <v>5</v>
-      </c>
-      <c r="E296" t="s">
-        <v>15</v>
-      </c>
-      <c r="F296">
-        <v>0.5</v>
+      <c r="A296" t="s">
+        <v>301</v>
+      </c>
+      <c r="F296" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>86</v>
-      </c>
-      <c r="F297" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" t="s">
-        <v>295</v>
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298" t="s">
+        <v>315</v>
+      </c>
+      <c r="C298" t="s">
+        <v>316</v>
+      </c>
+      <c r="D298">
+        <v>25</v>
+      </c>
+      <c r="E298" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298">
+        <v>8.75</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B299" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C299" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E299" t="s">
         <v>15</v>
       </c>
       <c r="F299">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B300" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C300" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="D300">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E300" t="s">
         <v>15</v>
       </c>
       <c r="F300">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C301" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="D301">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E301" t="s">
         <v>15</v>
       </c>
       <c r="F301">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C302" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D302">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E302" t="s">
         <v>15</v>
       </c>
       <c r="F302">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" t="s">
-        <v>295</v>
-      </c>
-      <c r="F303" t="s">
-        <v>305</v>
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303" t="s">
+        <v>323</v>
+      </c>
+      <c r="C303" t="s">
+        <v>324</v>
+      </c>
+      <c r="D303">
+        <v>6</v>
+      </c>
+      <c r="E303" t="s">
+        <v>15</v>
+      </c>
+      <c r="F303">
+        <v>2.1</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
-      <c r="A305">
-        <v>1</v>
-      </c>
-      <c r="B305" t="s">
-        <v>307</v>
-      </c>
-      <c r="C305" t="s">
-        <v>308</v>
-      </c>
-      <c r="D305">
-        <v>30</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F304" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6">
       <c r="E305" t="s">
-        <v>15</v>
-      </c>
-      <c r="F305">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
-      <c r="A306">
-        <v>2</v>
-      </c>
-      <c r="B306" t="s">
-        <v>307</v>
-      </c>
-      <c r="C306" t="s">
-        <v>308</v>
-      </c>
-      <c r="D306">
-        <v>50</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F305" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="306" spans="5:6">
       <c r="E306" t="s">
-        <v>15</v>
-      </c>
-      <c r="F306">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="A307" t="s">
-        <v>306</v>
-      </c>
-      <c r="F307" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
-      <c r="A308" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="A309">
-        <v>1</v>
-      </c>
-      <c r="B309" t="s">
-        <v>312</v>
-      </c>
-      <c r="C309" t="s">
-        <v>313</v>
-      </c>
-      <c r="D309">
-        <v>20</v>
-      </c>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6">
+      <c r="E307" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6">
+      <c r="E308" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="309" spans="5:6">
       <c r="E309" t="s">
-        <v>15</v>
-      </c>
-      <c r="F309">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
-      <c r="A310" t="s">
-        <v>311</v>
-      </c>
-      <c r="F310" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="310" spans="5:6">
+      <c r="E310" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="311" spans="5:6">
       <c r="E311" t="s">
-        <v>316</v>
-      </c>
-      <c r="F311" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="312" spans="5:6">
       <c r="E312" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="313" spans="5:6">
       <c r="E313" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
-      <c r="E314" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
-      <c r="E315" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="E316" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="E317" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="E318" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="E319" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A297:E297"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A303:E303"/>
-    <mergeCell ref="A304:F304"/>
-    <mergeCell ref="A307:E307"/>
-    <mergeCell ref="A308:F308"/>
-    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A228:E228"/>
+    <mergeCell ref="A229:F229"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="A252:F252"/>
+    <mergeCell ref="A270:E270"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A296:E296"/>
+    <mergeCell ref="A297:F297"/>
+    <mergeCell ref="A304:E304"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
